--- a/test_物件管理/test_ホワイトボート_空き待ちリスト.xlsx
+++ b/test_物件管理/test_ホワイトボート_空き待ちリスト.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="822" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="822" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="IN_DB_001" sheetId="7" r:id="rId1"/>
@@ -4533,8 +4533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:KP155"/>
   <sheetViews>
-    <sheetView topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="G65" sqref="G65"/>
+    <sheetView topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="C144" sqref="C144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -19264,7 +19264,7 @@
   <dimension ref="B1:AH47"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -20431,8 +20431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G123"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -21958,7 +21958,7 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -23961,8 +23961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/test_物件管理/test_ホワイトボート_空き待ちリスト.xlsx
+++ b/test_物件管理/test_ホワイトボート_空き待ちリスト.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="822" firstSheet="8" activeTab="13"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="822"/>
   </bookViews>
   <sheets>
     <sheet name="IN_DB_001" sheetId="7" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5757" uniqueCount="959">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5757" uniqueCount="957">
   <si>
     <t>URL:</t>
   </si>
@@ -3497,14 +3497,6 @@
   </si>
   <si>
     <t>0</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018/12/18 09:09:29</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018/12/18 09:09:30</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
@@ -4974,10 +4966,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:KQ164"/>
+  <dimension ref="A1:KQ166"/>
   <sheetViews>
-    <sheetView topLeftCell="A141" workbookViewId="0">
-      <selection activeCell="C174" sqref="C174"/>
+    <sheetView tabSelected="1" topLeftCell="EH141" workbookViewId="0">
+      <selection activeCell="EN176" sqref="EN176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -20685,8 +20677,8 @@
       <c r="CA164" s="142" t="s">
         <v>185</v>
       </c>
-      <c r="CB164" s="207" t="s">
-        <v>923</v>
+      <c r="CB164" s="259" t="s">
+        <v>185</v>
       </c>
       <c r="CC164" s="141" t="s">
         <v>846</v>
@@ -20820,8 +20812,8 @@
       <c r="DT164" s="142" t="s">
         <v>185</v>
       </c>
-      <c r="DU164" s="207" t="s">
-        <v>922</v>
+      <c r="DU164" s="259" t="s">
+        <v>185</v>
       </c>
       <c r="DV164" s="142" t="s">
         <v>185</v>
@@ -20874,8 +20866,8 @@
       <c r="EL164" s="142" t="s">
         <v>185</v>
       </c>
-      <c r="EM164" s="207" t="s">
-        <v>922</v>
+      <c r="EM164" s="259" t="s">
+        <v>185</v>
       </c>
       <c r="EN164" s="141">
         <v>1</v>
@@ -20954,6 +20946,9 @@
       <c r="KP164" s="135"/>
       <c r="KQ164" s="198"/>
     </row>
+    <row r="166" spans="1:303">
+      <c r="CB166" s="254"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="14" type="noConversion"/>
   <hyperlinks>
@@ -21014,7 +21009,7 @@
         <v>233</v>
       </c>
       <c r="B6" s="254" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
     </row>
   </sheetData>
@@ -22159,7 +22154,7 @@
         <v>243</v>
       </c>
       <c r="I21" s="238" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="J21" s="239" t="s">
         <v>185</v>
@@ -22615,7 +22610,7 @@
         <v>233</v>
       </c>
       <c r="B11" s="254" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="14.25">
@@ -22633,7 +22628,7 @@
         <v>233</v>
       </c>
       <c r="B15" s="256" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="C15" s="151"/>
       <c r="D15" s="151"/>
@@ -23779,7 +23774,7 @@
         <v>243</v>
       </c>
       <c r="I21" s="238" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="J21" s="239" t="s">
         <v>185</v>
@@ -24141,7 +24136,7 @@
         <v>86</v>
       </c>
       <c r="B26" s="247" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="C26" s="243"/>
       <c r="D26" s="243"/>
@@ -24220,7 +24215,7 @@
     <row r="27" spans="1:75" s="231" customFormat="1">
       <c r="A27" s="243"/>
       <c r="B27" s="253" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="C27" s="243"/>
       <c r="D27" s="243"/>
@@ -24314,22 +24309,22 @@
         <v>21</v>
       </c>
       <c r="G28" s="248" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="H28" s="248" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="I28" s="248" t="s">
         <v>97</v>
       </c>
       <c r="J28" s="248" t="s">
+        <v>932</v>
+      </c>
+      <c r="K28" s="248" t="s">
+        <v>933</v>
+      </c>
+      <c r="L28" s="248" t="s">
         <v>934</v>
-      </c>
-      <c r="K28" s="248" t="s">
-        <v>935</v>
-      </c>
-      <c r="L28" s="248" t="s">
-        <v>936</v>
       </c>
       <c r="M28" s="248" t="s">
         <v>813</v>
@@ -24418,7 +24413,7 @@
         <v>174</v>
       </c>
       <c r="H29" s="250" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="I29" s="251" t="s">
         <v>185</v>
@@ -24508,7 +24503,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B4:V47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
@@ -24651,7 +24646,7 @@
     </row>
     <row r="9" spans="2:22">
       <c r="B9" s="212" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="C9" s="194"/>
       <c r="D9" s="93"/>
@@ -25181,7 +25176,7 @@
         <v>233</v>
       </c>
       <c r="B6" s="254" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="55" customFormat="1" ht="14.25">
@@ -25214,7 +25209,7 @@
         <v>233</v>
       </c>
       <c r="B10" s="254" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="55" customFormat="1" ht="14.25">
@@ -25247,7 +25242,7 @@
         <v>233</v>
       </c>
       <c r="B14" s="254" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="55" customFormat="1" ht="14.25">
@@ -25280,7 +25275,7 @@
         <v>233</v>
       </c>
       <c r="B18" s="254" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
     </row>
     <row r="20" spans="1:4" s="55" customFormat="1" ht="14.25">
@@ -25313,7 +25308,7 @@
         <v>233</v>
       </c>
       <c r="B22" s="254" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
     </row>
     <row r="24" spans="1:4" s="77" customFormat="1" ht="14.25">
@@ -25346,7 +25341,7 @@
         <v>233</v>
       </c>
       <c r="B26" s="254" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
     </row>
     <row r="27" spans="1:4" s="77" customFormat="1"/>
@@ -25401,7 +25396,7 @@
         <v>536</v>
       </c>
       <c r="B4" s="256" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="14.25">
@@ -25841,15 +25836,15 @@
         <v>251</v>
       </c>
       <c r="C37" s="245" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
     </row>
     <row r="38" spans="1:4" s="198" customFormat="1" ht="14.25">
       <c r="A38" s="199" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="B38" s="254" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="C38" s="201"/>
     </row>
@@ -25923,7 +25918,7 @@
         <v>536</v>
       </c>
       <c r="B46" s="254" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
     </row>
     <row r="50" spans="2:4">
@@ -27001,7 +26996,7 @@
         <v>86</v>
       </c>
       <c r="B19" s="220" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="C19" s="218"/>
       <c r="D19" s="218"/>
@@ -27080,7 +27075,7 @@
     <row r="20" spans="1:75">
       <c r="A20" s="219"/>
       <c r="B20" s="224" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="C20" s="218"/>
       <c r="D20" s="218"/>
@@ -27177,10 +27172,10 @@
         <v>151</v>
       </c>
       <c r="H21" s="221" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="I21" s="221" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="J21" s="221" t="s">
         <v>461</v>
@@ -27269,7 +27264,7 @@
         <v>90</v>
       </c>
       <c r="G22" s="258" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="H22" s="258" t="s">
         <v>193</v>
@@ -27364,7 +27359,7 @@
         <v>185</v>
       </c>
       <c r="G23" s="258" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="H23" s="258" t="s">
         <v>253</v>
@@ -27459,7 +27454,7 @@
         <v>185</v>
       </c>
       <c r="G24" s="258" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="H24" s="258" t="s">
         <v>435</v>
@@ -27554,7 +27549,7 @@
         <v>185</v>
       </c>
       <c r="G25" s="258" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="H25" s="258" t="s">
         <v>436</v>
@@ -27649,7 +27644,7 @@
         <v>185</v>
       </c>
       <c r="G26" s="258" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="H26" s="258" t="s">
         <v>325</v>
@@ -29833,7 +29828,7 @@
         <v>233</v>
       </c>
       <c r="B9" s="254" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -29981,7 +29976,7 @@
         <v>233</v>
       </c>
       <c r="B4" s="256" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="135" customFormat="1" ht="14.25">
@@ -30232,7 +30227,7 @@
         <v>233</v>
       </c>
       <c r="B25" s="254" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="26" spans="1:4" s="40" customFormat="1"/>
@@ -31540,7 +31535,7 @@
         <v>242</v>
       </c>
       <c r="I23" s="228" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="J23" s="229" t="s">
         <v>185</v>
@@ -31635,7 +31630,7 @@
         <v>243</v>
       </c>
       <c r="I24" s="228" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="J24" s="229" t="s">
         <v>185</v>
